--- a/data/Dataset.xlsx
+++ b/data/Dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/n10636374_qut_edu_au/Documents/Year Two/10_MIT_QUT_Entrepreneurship/04_Assessment_1/Code/material_dash/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ido Bar\Documents\Github\material_dash\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{29F8CF09-36EB-4D02-AC1B-ADA30059D443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B93375DE-99D3-41E5-8335-A55DB7C3D054}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00BAE17-4D1D-4007-B413-F8D43CD86C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="3" r:id="rId1"/>
@@ -5288,8 +5288,8 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="ARIAL"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -5320,8 +5320,8 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="ARIAL"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5357,7 +5357,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -5435,6 +5435,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5818,12 +5821,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J558"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D566" sqref="D566"/>
+      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.86328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5841,7 +5843,7 @@
       <c r="A1" s="17" t="s">
         <v>1511</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="26" t="s">
         <v>1512</v>
       </c>
       <c r="C1" s="20" t="s">
@@ -5869,7 +5871,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>1514</v>
       </c>
@@ -5899,7 +5901,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>1517</v>
       </c>
@@ -5930,7 +5932,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>1516</v>
       </c>
@@ -5960,7 +5962,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>1519</v>
       </c>
@@ -5993,7 +5995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>1519</v>
       </c>
@@ -6024,7 +6026,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>1522</v>
       </c>
@@ -6054,7 +6056,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>209</v>
       </c>
@@ -6084,7 +6086,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>1525</v>
       </c>
@@ -6114,7 +6116,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>1525</v>
       </c>
@@ -6145,7 +6147,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>1525</v>
       </c>
@@ -6176,7 +6178,7 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
         <v>1526</v>
       </c>
@@ -6209,7 +6211,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
         <v>1526</v>
       </c>
@@ -6242,7 +6244,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
         <v>1530</v>
       </c>
@@ -6275,7 +6277,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="21" t="s">
         <v>1530</v>
       </c>
@@ -6306,7 +6308,7 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
         <v>1530</v>
       </c>
@@ -6337,7 +6339,7 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="21" t="s">
         <v>1530</v>
       </c>
@@ -6368,7 +6370,7 @@
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="21" t="s">
         <v>1530</v>
       </c>
@@ -6399,7 +6401,7 @@
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="21" t="s">
         <v>1530</v>
       </c>
@@ -6430,7 +6432,7 @@
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
         <v>1530</v>
       </c>
@@ -6461,7 +6463,7 @@
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="21" t="s">
         <v>1530</v>
       </c>
@@ -6492,7 +6494,7 @@
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="21" t="s">
         <v>1530</v>
       </c>
@@ -6523,7 +6525,7 @@
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
         <v>1530</v>
       </c>
@@ -6554,7 +6556,7 @@
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="21" t="s">
         <v>1530</v>
       </c>
@@ -6585,7 +6587,7 @@
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
         <v>1530</v>
       </c>
@@ -6616,7 +6618,7 @@
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="21" t="s">
         <v>1530</v>
       </c>
@@ -6647,7 +6649,7 @@
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>1530</v>
       </c>
@@ -6678,7 +6680,7 @@
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>1530</v>
       </c>
@@ -6709,7 +6711,7 @@
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="21" t="s">
         <v>1530</v>
       </c>
@@ -6740,7 +6742,7 @@
       </c>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="21" t="s">
         <v>1530</v>
       </c>
@@ -6771,7 +6773,7 @@
       </c>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="21" t="s">
         <v>1530</v>
       </c>
@@ -6802,7 +6804,7 @@
       </c>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="21" t="s">
         <v>1530</v>
       </c>
@@ -6833,7 +6835,7 @@
       </c>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="21" t="s">
         <v>1530</v>
       </c>
@@ -6864,7 +6866,7 @@
       </c>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="21" t="s">
         <v>1530</v>
       </c>
@@ -6895,7 +6897,7 @@
       </c>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="21" t="s">
         <v>1530</v>
       </c>
@@ -6926,7 +6928,7 @@
       </c>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="21" t="s">
         <v>1530</v>
       </c>
@@ -6957,7 +6959,7 @@
       </c>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
         <v>615</v>
       </c>
@@ -6987,7 +6989,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
         <v>1533</v>
       </c>
@@ -7017,7 +7019,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
         <v>1533</v>
       </c>
@@ -7048,7 +7050,7 @@
       </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
         <v>1533</v>
       </c>
@@ -7079,7 +7081,7 @@
       </c>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="21" t="s">
         <v>320</v>
       </c>
@@ -7109,7 +7111,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="21" t="s">
         <v>441</v>
       </c>
@@ -7142,7 +7144,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="21" t="s">
         <v>441</v>
       </c>
@@ -7173,7 +7175,7 @@
       </c>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="21" t="s">
         <v>1538</v>
       </c>
@@ -7203,7 +7205,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="21">
         <v>130</v>
       </c>
@@ -7233,7 +7235,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="21">
         <v>130</v>
       </c>
@@ -7264,7 +7266,7 @@
       </c>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="21">
         <v>130</v>
       </c>
@@ -7295,7 +7297,7 @@
       </c>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="21">
         <v>130</v>
       </c>
@@ -7326,7 +7328,7 @@
       </c>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="21">
         <v>130</v>
       </c>
@@ -7357,7 +7359,7 @@
       </c>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
         <v>526</v>
       </c>
@@ -7387,7 +7389,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="17" t="s">
         <v>526</v>
       </c>
@@ -7418,7 +7420,7 @@
       </c>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
         <v>1542</v>
       </c>
@@ -7448,7 +7450,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
         <v>1542</v>
       </c>
@@ -7479,7 +7481,7 @@
       </c>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
         <v>1542</v>
       </c>
@@ -7510,7 +7512,7 @@
       </c>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
         <v>1542</v>
       </c>
@@ -7541,7 +7543,7 @@
       </c>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
         <v>1542</v>
       </c>
@@ -7572,7 +7574,7 @@
       </c>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="17" t="s">
         <v>1542</v>
       </c>
@@ -7603,7 +7605,7 @@
       </c>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
         <v>1542</v>
       </c>
@@ -7634,7 +7636,7 @@
       </c>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
         <v>1542</v>
       </c>
@@ -7665,7 +7667,7 @@
       </c>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="17" t="s">
         <v>1542</v>
       </c>
@@ -7696,7 +7698,7 @@
       </c>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="17" t="s">
         <v>1542</v>
       </c>
@@ -7727,7 +7729,7 @@
       </c>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="17" t="s">
         <v>1542</v>
       </c>
@@ -7758,7 +7760,7 @@
       </c>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="17" t="s">
         <v>1542</v>
       </c>
@@ -7789,7 +7791,7 @@
       </c>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="17" t="s">
         <v>1542</v>
       </c>
@@ -7820,7 +7822,7 @@
       </c>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="17" t="s">
         <v>1542</v>
       </c>
@@ -7851,7 +7853,7 @@
       </c>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="17" t="s">
         <v>1542</v>
       </c>
@@ -7882,7 +7884,7 @@
       </c>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="17" t="s">
         <v>1542</v>
       </c>
@@ -7915,7 +7917,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="17" t="s">
         <v>1542</v>
       </c>
@@ -7946,7 +7948,7 @@
       </c>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="17" t="s">
         <v>669</v>
       </c>
@@ -7976,7 +7978,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="17" t="s">
         <v>1544</v>
       </c>
@@ -8009,7 +8011,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="17" t="s">
         <v>1544</v>
       </c>
@@ -8040,7 +8042,7 @@
       </c>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="17" t="s">
         <v>1544</v>
       </c>
@@ -8073,7 +8075,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="17" t="s">
         <v>1544</v>
       </c>
@@ -8104,7 +8106,7 @@
       </c>
       <c r="J73" s="2"/>
     </row>
-    <row r="74" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="17" t="s">
         <v>1544</v>
       </c>
@@ -8135,7 +8137,7 @@
       </c>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="17" t="s">
         <v>1549</v>
       </c>
@@ -8165,7 +8167,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="17" t="s">
         <v>1549</v>
       </c>
@@ -8198,7 +8200,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="17" t="s">
         <v>1549</v>
       </c>
@@ -8229,7 +8231,7 @@
       </c>
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="17" t="s">
         <v>1549</v>
       </c>
@@ -8260,7 +8262,7 @@
       </c>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="17" t="s">
         <v>1549</v>
       </c>
@@ -8291,7 +8293,7 @@
       </c>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="17" t="s">
         <v>1549</v>
       </c>
@@ -8322,7 +8324,7 @@
       </c>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="17" t="s">
         <v>1549</v>
       </c>
@@ -8353,7 +8355,7 @@
       </c>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="17" t="s">
         <v>1549</v>
       </c>
@@ -8384,7 +8386,7 @@
       </c>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="17" t="s">
         <v>1549</v>
       </c>
@@ -8415,7 +8417,7 @@
       </c>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="17" t="s">
         <v>1550</v>
       </c>
@@ -8448,7 +8450,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="17" t="s">
         <v>1551</v>
       </c>
@@ -8481,7 +8483,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="17" t="s">
         <v>1554</v>
       </c>
@@ -8511,7 +8513,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="17" t="s">
         <v>1556</v>
       </c>
@@ -8541,7 +8543,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="17" t="s">
         <v>1558</v>
       </c>
@@ -8571,7 +8573,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="17" t="s">
         <v>1558</v>
       </c>
@@ -8602,7 +8604,7 @@
       </c>
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="17" t="s">
         <v>1558</v>
       </c>
@@ -8633,7 +8635,7 @@
       </c>
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="17" t="s">
         <v>1560</v>
       </c>
@@ -8666,7 +8668,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="17" t="s">
         <v>618</v>
       </c>
@@ -8699,7 +8701,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="17" t="s">
         <v>618</v>
       </c>
@@ -8729,7 +8731,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="17" t="s">
         <v>618</v>
       </c>
@@ -8760,7 +8762,7 @@
       </c>
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="17" t="s">
         <v>1563</v>
       </c>
@@ -8790,7 +8792,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="17" t="s">
         <v>1564</v>
       </c>
@@ -8820,7 +8822,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="17" t="s">
         <v>1564</v>
       </c>
@@ -8851,7 +8853,7 @@
       </c>
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="17" t="s">
         <v>1564</v>
       </c>
@@ -8882,7 +8884,7 @@
       </c>
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="17" t="s">
         <v>1566</v>
       </c>
@@ -8912,7 +8914,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="17" t="s">
         <v>1566</v>
       </c>
@@ -8945,7 +8947,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="17" t="s">
         <v>1566</v>
       </c>
@@ -8978,7 +8980,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="17" t="s">
         <v>1566</v>
       </c>
@@ -9011,7 +9013,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="17" t="s">
         <v>1566</v>
       </c>
@@ -9042,7 +9044,7 @@
       </c>
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="17" t="s">
         <v>1566</v>
       </c>
@@ -9075,7 +9077,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="17" t="s">
         <v>1566</v>
       </c>
@@ -9106,7 +9108,7 @@
       </c>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="17" t="s">
         <v>1566</v>
       </c>
@@ -9137,7 +9139,7 @@
       </c>
       <c r="J106" s="2"/>
     </row>
-    <row r="107" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="17" t="s">
         <v>1566</v>
       </c>
@@ -9168,7 +9170,7 @@
       </c>
       <c r="J107" s="2"/>
     </row>
-    <row r="108" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="17" t="s">
         <v>1566</v>
       </c>
@@ -9199,7 +9201,7 @@
       </c>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="17" t="s">
         <v>1566</v>
       </c>
@@ -9230,7 +9232,7 @@
       </c>
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="17" t="s">
         <v>1566</v>
       </c>
@@ -9261,7 +9263,7 @@
       </c>
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="17" t="s">
         <v>1566</v>
       </c>
@@ -9292,7 +9294,7 @@
       </c>
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="17" t="s">
         <v>1566</v>
       </c>
@@ -9323,7 +9325,7 @@
       </c>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="17" t="s">
         <v>1566</v>
       </c>
@@ -9354,7 +9356,7 @@
       </c>
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="17" t="s">
         <v>1566</v>
       </c>
@@ -9385,7 +9387,7 @@
       </c>
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="17" t="s">
         <v>1566</v>
       </c>
@@ -9416,7 +9418,7 @@
       </c>
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="17" t="s">
         <v>1566</v>
       </c>
@@ -9449,7 +9451,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="17" t="s">
         <v>1566</v>
       </c>
@@ -9482,7 +9484,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="17" t="s">
         <v>1566</v>
       </c>
@@ -9513,7 +9515,7 @@
       </c>
       <c r="J118" s="2"/>
     </row>
-    <row r="119" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="17" t="s">
         <v>1566</v>
       </c>
@@ -9544,7 +9546,7 @@
       </c>
       <c r="J119" s="2"/>
     </row>
-    <row r="120" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="17" t="s">
         <v>1566</v>
       </c>
@@ -9577,7 +9579,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="17" t="s">
         <v>1566</v>
       </c>
@@ -9610,7 +9612,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="17" t="s">
         <v>1566</v>
       </c>
@@ -9641,7 +9643,7 @@
       </c>
       <c r="J122" s="2"/>
     </row>
-    <row r="123" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="17" t="s">
         <v>1566</v>
       </c>
@@ -9672,7 +9674,7 @@
       </c>
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="17" t="s">
         <v>1566</v>
       </c>
@@ -9703,7 +9705,7 @@
       </c>
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="17" t="s">
         <v>1566</v>
       </c>
@@ -9734,7 +9736,7 @@
       </c>
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="17" t="s">
         <v>1566</v>
       </c>
@@ -9765,7 +9767,7 @@
       </c>
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="17" t="s">
         <v>1566</v>
       </c>
@@ -9798,7 +9800,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="17" t="s">
         <v>1566</v>
       </c>
@@ -9829,7 +9831,7 @@
       </c>
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="17" t="s">
         <v>1568</v>
       </c>
@@ -9859,7 +9861,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="17" t="s">
         <v>1569</v>
       </c>
@@ -9889,7 +9891,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="17" t="s">
         <v>1569</v>
       </c>
@@ -9920,7 +9922,7 @@
       </c>
       <c r="J131" s="2"/>
     </row>
-    <row r="132" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="17" t="s">
         <v>1569</v>
       </c>
@@ -9951,7 +9953,7 @@
       </c>
       <c r="J132" s="2"/>
     </row>
-    <row r="133" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="17" t="s">
         <v>1573</v>
       </c>
@@ -9981,7 +9983,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="17" t="s">
         <v>1573</v>
       </c>
@@ -10012,7 +10014,7 @@
       </c>
       <c r="J134" s="2"/>
     </row>
-    <row r="135" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="17" t="s">
         <v>1573</v>
       </c>
@@ -10043,7 +10045,7 @@
       </c>
       <c r="J135" s="2"/>
     </row>
-    <row r="136" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="17" t="s">
         <v>1573</v>
       </c>
@@ -10074,7 +10076,7 @@
       </c>
       <c r="J136" s="2"/>
     </row>
-    <row r="137" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="17" t="s">
         <v>1573</v>
       </c>
@@ -10105,7 +10107,7 @@
       </c>
       <c r="J137" s="2"/>
     </row>
-    <row r="138" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="17" t="s">
         <v>1573</v>
       </c>
@@ -10136,7 +10138,7 @@
       </c>
       <c r="J138" s="2"/>
     </row>
-    <row r="139" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="17" t="s">
         <v>1573</v>
       </c>
@@ -10167,7 +10169,7 @@
       </c>
       <c r="J139" s="2"/>
     </row>
-    <row r="140" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="17" t="s">
         <v>1574</v>
       </c>
@@ -10197,7 +10199,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="17" t="s">
         <v>1574</v>
       </c>
@@ -10228,7 +10230,7 @@
       </c>
       <c r="J141" s="2"/>
     </row>
-    <row r="142" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="17" t="s">
         <v>1577</v>
       </c>
@@ -10258,7 +10260,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="17" t="s">
         <v>1577</v>
       </c>
@@ -10289,7 +10291,7 @@
       </c>
       <c r="J143" s="2"/>
     </row>
-    <row r="144" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="17" t="s">
         <v>1577</v>
       </c>
@@ -10320,7 +10322,7 @@
       </c>
       <c r="J144" s="2"/>
     </row>
-    <row r="145" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="17" t="s">
         <v>1577</v>
       </c>
@@ -10351,7 +10353,7 @@
       </c>
       <c r="J145" s="2"/>
     </row>
-    <row r="146" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="17" t="s">
         <v>1577</v>
       </c>
@@ -10382,7 +10384,7 @@
       </c>
       <c r="J146" s="2"/>
     </row>
-    <row r="147" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="17" t="s">
         <v>1577</v>
       </c>
@@ -10413,7 +10415,7 @@
       </c>
       <c r="J147" s="2"/>
     </row>
-    <row r="148" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="17" t="s">
         <v>1578</v>
       </c>
@@ -10446,7 +10448,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="17" t="s">
         <v>1578</v>
       </c>
@@ -10477,7 +10479,7 @@
       </c>
       <c r="J149" s="2"/>
     </row>
-    <row r="150" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="17" t="s">
         <v>1578</v>
       </c>
@@ -10508,7 +10510,7 @@
       </c>
       <c r="J150" s="2"/>
     </row>
-    <row r="151" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="17" t="s">
         <v>1578</v>
       </c>
@@ -10539,7 +10541,7 @@
       </c>
       <c r="J151" s="2"/>
     </row>
-    <row r="152" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="17" t="s">
         <v>1578</v>
       </c>
@@ -10570,7 +10572,7 @@
       </c>
       <c r="J152" s="2"/>
     </row>
-    <row r="153" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="17" t="s">
         <v>1578</v>
       </c>
@@ -10601,7 +10603,7 @@
       </c>
       <c r="J153" s="2"/>
     </row>
-    <row r="154" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="17" t="s">
         <v>1578</v>
       </c>
@@ -10632,7 +10634,7 @@
       </c>
       <c r="J154" s="2"/>
     </row>
-    <row r="155" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="17" t="s">
         <v>1580</v>
       </c>
@@ -10665,7 +10667,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="17" t="s">
         <v>1580</v>
       </c>
@@ -10695,7 +10697,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="17" t="s">
         <v>1580</v>
       </c>
@@ -10726,7 +10728,7 @@
       </c>
       <c r="J157" s="2"/>
     </row>
-    <row r="158" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="17" t="s">
         <v>1580</v>
       </c>
@@ -10757,7 +10759,7 @@
       </c>
       <c r="J158" s="2"/>
     </row>
-    <row r="159" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="17" t="s">
         <v>1580</v>
       </c>
@@ -10790,7 +10792,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="17" t="s">
         <v>1580</v>
       </c>
@@ -10821,7 +10823,7 @@
       </c>
       <c r="J160" s="2"/>
     </row>
-    <row r="161" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="17" t="s">
         <v>1582</v>
       </c>
@@ -10851,7 +10853,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="17" t="s">
         <v>1582</v>
       </c>
@@ -10882,7 +10884,7 @@
       </c>
       <c r="J162" s="2"/>
     </row>
-    <row r="163" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="17" t="s">
         <v>1582</v>
       </c>
@@ -10915,7 +10917,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="17" t="s">
         <v>1582</v>
       </c>
@@ -10946,7 +10948,7 @@
       </c>
       <c r="J164" s="2"/>
     </row>
-    <row r="165" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="17" t="s">
         <v>1582</v>
       </c>
@@ -10977,7 +10979,7 @@
       </c>
       <c r="J165" s="2"/>
     </row>
-    <row r="166" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="17" t="s">
         <v>1582</v>
       </c>
@@ -11010,7 +11012,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="17" t="s">
         <v>1582</v>
       </c>
@@ -11041,7 +11043,7 @@
       </c>
       <c r="J167" s="2"/>
     </row>
-    <row r="168" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="17" t="s">
         <v>1582</v>
       </c>
@@ -11074,7 +11076,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="17" t="s">
         <v>1582</v>
       </c>
@@ -11105,7 +11107,7 @@
       </c>
       <c r="J169" s="2"/>
     </row>
-    <row r="170" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="17" t="s">
         <v>1582</v>
       </c>
@@ -11138,7 +11140,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="17" t="s">
         <v>1582</v>
       </c>
@@ -11171,7 +11173,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="17" t="s">
         <v>1582</v>
       </c>
@@ -11202,7 +11204,7 @@
       </c>
       <c r="J172" s="2"/>
     </row>
-    <row r="173" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="17" t="s">
         <v>1582</v>
       </c>
@@ -11235,7 +11237,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="17" t="s">
         <v>1582</v>
       </c>
@@ -11268,7 +11270,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="17" t="s">
         <v>1582</v>
       </c>
@@ -11301,7 +11303,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="17" t="s">
         <v>1582</v>
       </c>
@@ -11334,7 +11336,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="17" t="s">
         <v>1582</v>
       </c>
@@ -11367,7 +11369,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="17" t="s">
         <v>1582</v>
       </c>
@@ -11398,7 +11400,7 @@
       </c>
       <c r="J178" s="2"/>
     </row>
-    <row r="179" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="17" t="s">
         <v>1582</v>
       </c>
@@ -11429,7 +11431,7 @@
       </c>
       <c r="J179" s="2"/>
     </row>
-    <row r="180" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="17" t="s">
         <v>1582</v>
       </c>
@@ -11462,7 +11464,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="17" t="s">
         <v>1582</v>
       </c>
@@ -11493,7 +11495,7 @@
       </c>
       <c r="J181" s="2"/>
     </row>
-    <row r="182" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="17" t="s">
         <v>1582</v>
       </c>
@@ -11526,7 +11528,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="21" t="s">
         <v>1585</v>
       </c>
@@ -11556,7 +11558,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="21" t="s">
         <v>1585</v>
       </c>
@@ -11587,7 +11589,7 @@
       </c>
       <c r="J184" s="2"/>
     </row>
-    <row r="185" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="21" t="s">
         <v>1585</v>
       </c>
@@ -11618,7 +11620,7 @@
       </c>
       <c r="J185" s="2"/>
     </row>
-    <row r="186" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="21" t="s">
         <v>1585</v>
       </c>
@@ -11649,7 +11651,7 @@
       </c>
       <c r="J186" s="2"/>
     </row>
-    <row r="187" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="21" t="s">
         <v>1585</v>
       </c>
@@ -11680,7 +11682,7 @@
       </c>
       <c r="J187" s="2"/>
     </row>
-    <row r="188" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="21" t="s">
         <v>1585</v>
       </c>
@@ -11711,7 +11713,7 @@
       </c>
       <c r="J188" s="2"/>
     </row>
-    <row r="189" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="21" t="s">
         <v>1591</v>
       </c>
@@ -11742,7 +11744,7 @@
       </c>
       <c r="J189" s="2"/>
     </row>
-    <row r="190" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="21" t="s">
         <v>1591</v>
       </c>
@@ -11773,7 +11775,7 @@
       </c>
       <c r="J190" s="2"/>
     </row>
-    <row r="191" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="21" t="s">
         <v>1591</v>
       </c>
@@ -11804,7 +11806,7 @@
       </c>
       <c r="J191" s="2"/>
     </row>
-    <row r="192" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="21" t="s">
         <v>1591</v>
       </c>
@@ -11837,7 +11839,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="21" t="s">
         <v>1591</v>
       </c>
@@ -11870,7 +11872,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="21" t="s">
         <v>1591</v>
       </c>
@@ -11903,7 +11905,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="21" t="s">
         <v>1591</v>
       </c>
@@ -11936,7 +11938,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="21" t="s">
         <v>1591</v>
       </c>
@@ -11967,7 +11969,7 @@
       </c>
       <c r="J196" s="2"/>
     </row>
-    <row r="197" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="21" t="s">
         <v>1591</v>
       </c>
@@ -11998,7 +12000,7 @@
       </c>
       <c r="J197" s="2"/>
     </row>
-    <row r="198" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="21" t="s">
         <v>1591</v>
       </c>
@@ -12029,7 +12031,7 @@
       </c>
       <c r="J198" s="2"/>
     </row>
-    <row r="199" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="21" t="s">
         <v>1591</v>
       </c>
@@ -12060,7 +12062,7 @@
       </c>
       <c r="J199" s="2"/>
     </row>
-    <row r="200" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="21" t="s">
         <v>1591</v>
       </c>
@@ -12091,7 +12093,7 @@
       </c>
       <c r="J200" s="2"/>
     </row>
-    <row r="201" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="21" t="s">
         <v>1591</v>
       </c>
@@ -12122,7 +12124,7 @@
       </c>
       <c r="J201" s="2"/>
     </row>
-    <row r="202" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="21" t="s">
         <v>1591</v>
       </c>
@@ -12153,7 +12155,7 @@
       </c>
       <c r="J202" s="2"/>
     </row>
-    <row r="203" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="21" t="s">
         <v>1591</v>
       </c>
@@ -12184,7 +12186,7 @@
       </c>
       <c r="J203" s="2"/>
     </row>
-    <row r="204" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="21" t="s">
         <v>1591</v>
       </c>
@@ -12215,7 +12217,7 @@
       </c>
       <c r="J204" s="2"/>
     </row>
-    <row r="205" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="21" t="s">
         <v>1591</v>
       </c>
@@ -12246,7 +12248,7 @@
       </c>
       <c r="J205" s="2"/>
     </row>
-    <row r="206" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="21" t="s">
         <v>1591</v>
       </c>
@@ -12277,7 +12279,7 @@
       </c>
       <c r="J206" s="2"/>
     </row>
-    <row r="207" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="21" t="s">
         <v>1591</v>
       </c>
@@ -12308,7 +12310,7 @@
       </c>
       <c r="J207" s="2"/>
     </row>
-    <row r="208" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="21" t="s">
         <v>1593</v>
       </c>
@@ -12341,7 +12343,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="21" t="s">
         <v>1593</v>
       </c>
@@ -12374,7 +12376,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="17" t="s">
         <v>1594</v>
       </c>
@@ -12405,7 +12407,7 @@
       </c>
       <c r="J210" s="2"/>
     </row>
-    <row r="211" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="17" t="s">
         <v>1594</v>
       </c>
@@ -12436,7 +12438,7 @@
       </c>
       <c r="J211" s="2"/>
     </row>
-    <row r="212" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="17" t="s">
         <v>1594</v>
       </c>
@@ -12467,7 +12469,7 @@
       </c>
       <c r="J212" s="2"/>
     </row>
-    <row r="213" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="17" t="s">
         <v>1594</v>
       </c>
@@ -12498,7 +12500,7 @@
       </c>
       <c r="J213" s="2"/>
     </row>
-    <row r="214" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="17" t="s">
         <v>1594</v>
       </c>
@@ -12529,7 +12531,7 @@
       </c>
       <c r="J214" s="2"/>
     </row>
-    <row r="215" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="17" t="s">
         <v>1594</v>
       </c>
@@ -12560,7 +12562,7 @@
       </c>
       <c r="J215" s="2"/>
     </row>
-    <row r="216" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="17" t="s">
         <v>1594</v>
       </c>
@@ -12591,7 +12593,7 @@
       </c>
       <c r="J216" s="2"/>
     </row>
-    <row r="217" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="17" t="s">
         <v>1594</v>
       </c>
@@ -12622,7 +12624,7 @@
       </c>
       <c r="J217" s="2"/>
     </row>
-    <row r="218" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="17" t="s">
         <v>1594</v>
       </c>
@@ -12653,7 +12655,7 @@
       </c>
       <c r="J218" s="2"/>
     </row>
-    <row r="219" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="17" t="s">
         <v>1594</v>
       </c>
@@ -12684,7 +12686,7 @@
       </c>
       <c r="J219" s="2"/>
     </row>
-    <row r="220" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="17" t="s">
         <v>1594</v>
       </c>
@@ -12717,7 +12719,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="17" t="s">
         <v>1594</v>
       </c>
@@ -12750,7 +12752,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="17" t="s">
         <v>1594</v>
       </c>
@@ -12781,7 +12783,7 @@
       </c>
       <c r="J222" s="2"/>
     </row>
-    <row r="223" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="17" t="s">
         <v>1594</v>
       </c>
@@ -12812,7 +12814,7 @@
       </c>
       <c r="J223" s="2"/>
     </row>
-    <row r="224" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="17" t="s">
         <v>1594</v>
       </c>
@@ -12843,7 +12845,7 @@
       </c>
       <c r="J224" s="2"/>
     </row>
-    <row r="225" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="17" t="s">
         <v>1594</v>
       </c>
@@ -12874,7 +12876,7 @@
       </c>
       <c r="J225" s="2"/>
     </row>
-    <row r="226" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="17" t="s">
         <v>1594</v>
       </c>
@@ -12905,7 +12907,7 @@
       </c>
       <c r="J226" s="2"/>
     </row>
-    <row r="227" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="17" t="s">
         <v>1594</v>
       </c>
@@ -12936,7 +12938,7 @@
       </c>
       <c r="J227" s="2"/>
     </row>
-    <row r="228" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="17" t="s">
         <v>1594</v>
       </c>
@@ -12967,7 +12969,7 @@
       </c>
       <c r="J228" s="2"/>
     </row>
-    <row r="229" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="17" t="s">
         <v>1594</v>
       </c>
@@ -12998,7 +13000,7 @@
       </c>
       <c r="J229" s="2"/>
     </row>
-    <row r="230" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="17" t="s">
         <v>1594</v>
       </c>
@@ -13029,7 +13031,7 @@
       </c>
       <c r="J230" s="2"/>
     </row>
-    <row r="231" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="17" t="s">
         <v>1594</v>
       </c>
@@ -13060,7 +13062,7 @@
       </c>
       <c r="J231" s="2"/>
     </row>
-    <row r="232" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="17" t="s">
         <v>1594</v>
       </c>
@@ -13093,7 +13095,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="17" t="s">
         <v>1595</v>
       </c>
@@ -13123,7 +13125,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="234" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="17" t="s">
         <v>1595</v>
       </c>
@@ -13154,7 +13156,7 @@
       </c>
       <c r="J234" s="2"/>
     </row>
-    <row r="235" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="17" t="s">
         <v>1595</v>
       </c>
@@ -13185,7 +13187,7 @@
       </c>
       <c r="J235" s="2"/>
     </row>
-    <row r="236" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="17" t="s">
         <v>1595</v>
       </c>
@@ -13216,7 +13218,7 @@
       </c>
       <c r="J236" s="2"/>
     </row>
-    <row r="237" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="17" t="s">
         <v>1595</v>
       </c>
@@ -13247,7 +13249,7 @@
       </c>
       <c r="J237" s="2"/>
     </row>
-    <row r="238" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="17" t="s">
         <v>1595</v>
       </c>
@@ -13278,7 +13280,7 @@
       </c>
       <c r="J238" s="2"/>
     </row>
-    <row r="239" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="17" t="s">
         <v>1595</v>
       </c>
@@ -13309,7 +13311,7 @@
       </c>
       <c r="J239" s="2"/>
     </row>
-    <row r="240" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="17" t="s">
         <v>1595</v>
       </c>
@@ -13340,7 +13342,7 @@
       </c>
       <c r="J240" s="2"/>
     </row>
-    <row r="241" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="17" t="s">
         <v>1595</v>
       </c>
@@ -13371,7 +13373,7 @@
       </c>
       <c r="J241" s="2"/>
     </row>
-    <row r="242" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="17" t="s">
         <v>1595</v>
       </c>
@@ -13402,7 +13404,7 @@
       </c>
       <c r="J242" s="2"/>
     </row>
-    <row r="243" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="17" t="s">
         <v>1595</v>
       </c>
@@ -13433,7 +13435,7 @@
       </c>
       <c r="J243" s="2"/>
     </row>
-    <row r="244" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="17" t="s">
         <v>1595</v>
       </c>
@@ -13464,7 +13466,7 @@
       </c>
       <c r="J244" s="2"/>
     </row>
-    <row r="245" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="17" t="s">
         <v>1595</v>
       </c>
@@ -13497,7 +13499,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="17" t="s">
         <v>1595</v>
       </c>
@@ -13528,7 +13530,7 @@
       </c>
       <c r="J246" s="2"/>
     </row>
-    <row r="247" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="17" t="s">
         <v>1595</v>
       </c>
@@ -13561,7 +13563,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="17" t="s">
         <v>1595</v>
       </c>
@@ -13591,7 +13593,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="17" t="s">
         <v>1596</v>
       </c>
@@ -13621,7 +13623,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="17" t="s">
         <v>1596</v>
       </c>
@@ -13652,7 +13654,7 @@
       </c>
       <c r="J250" s="2"/>
     </row>
-    <row r="251" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="17" t="s">
         <v>1597</v>
       </c>
@@ -13683,7 +13685,7 @@
       </c>
       <c r="J251" s="2"/>
     </row>
-    <row r="252" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="17" t="s">
         <v>1597</v>
       </c>
@@ -13714,7 +13716,7 @@
       </c>
       <c r="J252" s="2"/>
     </row>
-    <row r="253" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="17" t="s">
         <v>1597</v>
       </c>
@@ -13747,7 +13749,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="17" t="s">
         <v>1597</v>
       </c>
@@ -13778,7 +13780,7 @@
       </c>
       <c r="J254" s="2"/>
     </row>
-    <row r="255" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="17" t="s">
         <v>1597</v>
       </c>
@@ -13809,7 +13811,7 @@
       </c>
       <c r="J255" s="2"/>
     </row>
-    <row r="256" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="17" t="s">
         <v>1597</v>
       </c>
@@ -13840,7 +13842,7 @@
       </c>
       <c r="J256" s="2"/>
     </row>
-    <row r="257" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="17" t="s">
         <v>1597</v>
       </c>
@@ -13873,7 +13875,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="17" t="s">
         <v>1597</v>
       </c>
@@ -13969,7 +13971,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="17" t="s">
         <v>1606</v>
       </c>
@@ -13999,7 +14001,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="17" t="s">
         <v>1606</v>
       </c>
@@ -14030,7 +14032,7 @@
       </c>
       <c r="J262" s="2"/>
     </row>
-    <row r="263" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="17" t="s">
         <v>1606</v>
       </c>
@@ -14061,7 +14063,7 @@
       </c>
       <c r="J263" s="2"/>
     </row>
-    <row r="264" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="17" t="s">
         <v>1606</v>
       </c>
@@ -14094,7 +14096,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="17" t="s">
         <v>1606</v>
       </c>
@@ -14125,7 +14127,7 @@
       </c>
       <c r="J265" s="2"/>
     </row>
-    <row r="266" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="21" t="s">
         <v>1607</v>
       </c>
@@ -14158,7 +14160,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="21" t="s">
         <v>1607</v>
       </c>
@@ -14191,7 +14193,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="21" t="s">
         <v>1609</v>
       </c>
@@ -14221,7 +14223,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="21" t="s">
         <v>1613</v>
       </c>
@@ -14252,7 +14254,7 @@
       </c>
       <c r="J269" s="2"/>
     </row>
-    <row r="270" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="21" t="s">
         <v>1614</v>
       </c>
@@ -14283,7 +14285,7 @@
       </c>
       <c r="J270" s="2"/>
     </row>
-    <row r="271" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="21" t="s">
         <v>1615</v>
       </c>
@@ -14314,7 +14316,7 @@
       </c>
       <c r="J271" s="2"/>
     </row>
-    <row r="272" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="21" t="s">
         <v>1616</v>
       </c>
@@ -14345,7 +14347,7 @@
       </c>
       <c r="J272" s="2"/>
     </row>
-    <row r="273" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="21" t="s">
         <v>1611</v>
       </c>
@@ -14376,7 +14378,7 @@
       </c>
       <c r="J273" s="2"/>
     </row>
-    <row r="274" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="21" t="s">
         <v>1617</v>
       </c>
@@ -14407,7 +14409,7 @@
       </c>
       <c r="J274" s="2"/>
     </row>
-    <row r="275" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="21" t="s">
         <v>1611</v>
       </c>
@@ -14437,7 +14439,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="21" t="s">
         <v>1617</v>
       </c>
@@ -14470,7 +14472,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="21" t="s">
         <v>1620</v>
       </c>
@@ -14503,7 +14505,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="278" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="21" t="s">
         <v>1621</v>
       </c>
@@ -14534,7 +14536,7 @@
       </c>
       <c r="J278" s="2"/>
     </row>
-    <row r="279" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="17" t="s">
         <v>1619</v>
       </c>
@@ -14565,7 +14567,7 @@
       </c>
       <c r="J279" s="2"/>
     </row>
-    <row r="280" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="17" t="s">
         <v>1619</v>
       </c>
@@ -14596,7 +14598,7 @@
       </c>
       <c r="J280" s="2"/>
     </row>
-    <row r="281" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="17" t="s">
         <v>1619</v>
       </c>
@@ -14627,7 +14629,7 @@
       </c>
       <c r="J281" s="2"/>
     </row>
-    <row r="282" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="17" t="s">
         <v>1619</v>
       </c>
@@ -14658,7 +14660,7 @@
       </c>
       <c r="J282" s="2"/>
     </row>
-    <row r="283" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="17" t="s">
         <v>1619</v>
       </c>
@@ -14689,7 +14691,7 @@
       </c>
       <c r="J283" s="2"/>
     </row>
-    <row r="284" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="17" t="s">
         <v>1619</v>
       </c>
@@ -14720,7 +14722,7 @@
       </c>
       <c r="J284" s="2"/>
     </row>
-    <row r="285" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="17" t="s">
         <v>1619</v>
       </c>
@@ -14751,7 +14753,7 @@
       </c>
       <c r="J285" s="2"/>
     </row>
-    <row r="286" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="17" t="s">
         <v>1619</v>
       </c>
@@ -14782,7 +14784,7 @@
       </c>
       <c r="J286" s="2"/>
     </row>
-    <row r="287" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="17" t="s">
         <v>1619</v>
       </c>
@@ -14813,7 +14815,7 @@
       </c>
       <c r="J287" s="2"/>
     </row>
-    <row r="288" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="17" t="s">
         <v>1619</v>
       </c>
@@ -14844,7 +14846,7 @@
       </c>
       <c r="J288" s="2"/>
     </row>
-    <row r="289" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="17" t="s">
         <v>1619</v>
       </c>
@@ -14875,7 +14877,7 @@
       </c>
       <c r="J289" s="2"/>
     </row>
-    <row r="290" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="17" t="s">
         <v>1619</v>
       </c>
@@ -14906,7 +14908,7 @@
       </c>
       <c r="J290" s="2"/>
     </row>
-    <row r="291" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="17" t="s">
         <v>1619</v>
       </c>
@@ -14937,7 +14939,7 @@
       </c>
       <c r="J291" s="2"/>
     </row>
-    <row r="292" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="17" t="s">
         <v>1619</v>
       </c>
@@ -14968,7 +14970,7 @@
       </c>
       <c r="J292" s="2"/>
     </row>
-    <row r="293" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="17" t="s">
         <v>1619</v>
       </c>
@@ -14999,7 +15001,7 @@
       </c>
       <c r="J293" s="2"/>
     </row>
-    <row r="294" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="17" t="s">
         <v>1619</v>
       </c>
@@ -15030,7 +15032,7 @@
       </c>
       <c r="J294" s="2"/>
     </row>
-    <row r="295" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="17" t="s">
         <v>1619</v>
       </c>
@@ -15061,7 +15063,7 @@
       </c>
       <c r="J295" s="2"/>
     </row>
-    <row r="296" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="17" t="s">
         <v>1619</v>
       </c>
@@ -15092,7 +15094,7 @@
       </c>
       <c r="J296" s="2"/>
     </row>
-    <row r="297" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="17" t="s">
         <v>1619</v>
       </c>
@@ -15123,7 +15125,7 @@
       </c>
       <c r="J297" s="2"/>
     </row>
-    <row r="298" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="17" t="s">
         <v>1619</v>
       </c>
@@ -15154,7 +15156,7 @@
       </c>
       <c r="J298" s="2"/>
     </row>
-    <row r="299" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="17" t="s">
         <v>1619</v>
       </c>
@@ -15185,7 +15187,7 @@
       </c>
       <c r="J299" s="2"/>
     </row>
-    <row r="300" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="17" t="s">
         <v>1619</v>
       </c>
@@ -15216,7 +15218,7 @@
       </c>
       <c r="J300" s="2"/>
     </row>
-    <row r="301" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="17" t="s">
         <v>1619</v>
       </c>
@@ -15247,7 +15249,7 @@
       </c>
       <c r="J301" s="2"/>
     </row>
-    <row r="302" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="17" t="s">
         <v>1619</v>
       </c>
@@ -15278,7 +15280,7 @@
       </c>
       <c r="J302" s="2"/>
     </row>
-    <row r="303" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="17" t="s">
         <v>1619</v>
       </c>
@@ -15309,7 +15311,7 @@
       </c>
       <c r="J303" s="2"/>
     </row>
-    <row r="304" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="17" t="s">
         <v>1619</v>
       </c>
@@ -15342,7 +15344,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="17" t="s">
         <v>1619</v>
       </c>
@@ -15373,7 +15375,7 @@
       </c>
       <c r="J305" s="2"/>
     </row>
-    <row r="306" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="21" t="s">
         <v>1622</v>
       </c>
@@ -15404,7 +15406,7 @@
       </c>
       <c r="J306" s="2"/>
     </row>
-    <row r="307" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="21" t="s">
         <v>1622</v>
       </c>
@@ -15437,7 +15439,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="21" t="s">
         <v>1622</v>
       </c>
@@ -15468,7 +15470,7 @@
       </c>
       <c r="J308" s="2"/>
     </row>
-    <row r="309" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="21" t="s">
         <v>1622</v>
       </c>
@@ -15499,7 +15501,7 @@
       </c>
       <c r="J309" s="2"/>
     </row>
-    <row r="310" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="21" t="s">
         <v>1622</v>
       </c>
@@ -15530,7 +15532,7 @@
       </c>
       <c r="J310" s="2"/>
     </row>
-    <row r="311" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="21" t="s">
         <v>1622</v>
       </c>
@@ -15561,7 +15563,7 @@
       </c>
       <c r="J311" s="2"/>
     </row>
-    <row r="312" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="21" t="s">
         <v>1622</v>
       </c>
@@ -15594,7 +15596,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="21" t="s">
         <v>1622</v>
       </c>
@@ -15625,7 +15627,7 @@
       </c>
       <c r="J313" s="2"/>
     </row>
-    <row r="314" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="21" t="s">
         <v>1622</v>
       </c>
@@ -15656,7 +15658,7 @@
       </c>
       <c r="J314" s="2"/>
     </row>
-    <row r="315" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="21" t="s">
         <v>1622</v>
       </c>
@@ -15687,7 +15689,7 @@
       </c>
       <c r="J315" s="2"/>
     </row>
-    <row r="316" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="21" t="s">
         <v>1622</v>
       </c>
@@ -15718,7 +15720,7 @@
       </c>
       <c r="J316" s="2"/>
     </row>
-    <row r="317" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="21" t="s">
         <v>1624</v>
       </c>
@@ -15749,7 +15751,7 @@
       </c>
       <c r="J317" s="2"/>
     </row>
-    <row r="318" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="21" t="s">
         <v>1624</v>
       </c>
@@ -15780,7 +15782,7 @@
       </c>
       <c r="J318" s="2"/>
     </row>
-    <row r="319" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="21" t="s">
         <v>1624</v>
       </c>
@@ -15813,7 +15815,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="21" t="s">
         <v>1624</v>
       </c>
@@ -15846,7 +15848,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="321" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="21" t="s">
         <v>1624</v>
       </c>
@@ -15879,7 +15881,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="21" t="s">
         <v>1624</v>
       </c>
@@ -15912,7 +15914,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="21" t="s">
         <v>1624</v>
       </c>
@@ -15945,7 +15947,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="324" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="21" t="s">
         <v>1624</v>
       </c>
@@ -15976,7 +15978,7 @@
       </c>
       <c r="J324" s="2"/>
     </row>
-    <row r="325" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="21" t="s">
         <v>1626</v>
       </c>
@@ -16009,7 +16011,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="326" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="21" t="s">
         <v>1626</v>
       </c>
@@ -16040,7 +16042,7 @@
       </c>
       <c r="J326" s="2"/>
     </row>
-    <row r="327" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="21" t="s">
         <v>1626</v>
       </c>
@@ -16071,7 +16073,7 @@
       </c>
       <c r="J327" s="2"/>
     </row>
-    <row r="328" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="21" t="s">
         <v>1626</v>
       </c>
@@ -16102,7 +16104,7 @@
       </c>
       <c r="J328" s="2"/>
     </row>
-    <row r="329" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="21" t="s">
         <v>1626</v>
       </c>
@@ -16133,7 +16135,7 @@
       </c>
       <c r="J329" s="2"/>
     </row>
-    <row r="330" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="21" t="s">
         <v>1626</v>
       </c>
@@ -16164,7 +16166,7 @@
       </c>
       <c r="J330" s="2"/>
     </row>
-    <row r="331" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="21" t="s">
         <v>1626</v>
       </c>
@@ -16195,7 +16197,7 @@
       </c>
       <c r="J331" s="2"/>
     </row>
-    <row r="332" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="21" t="s">
         <v>1626</v>
       </c>
@@ -16226,7 +16228,7 @@
       </c>
       <c r="J332" s="2"/>
     </row>
-    <row r="333" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="21" t="s">
         <v>1626</v>
       </c>
@@ -16257,7 +16259,7 @@
       </c>
       <c r="J333" s="2"/>
     </row>
-    <row r="334" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="21" t="s">
         <v>1626</v>
       </c>
@@ -16288,7 +16290,7 @@
       </c>
       <c r="J334" s="2"/>
     </row>
-    <row r="335" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="21" t="s">
         <v>1626</v>
       </c>
@@ -16319,7 +16321,7 @@
       </c>
       <c r="J335" s="2"/>
     </row>
-    <row r="336" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="21" t="s">
         <v>1626</v>
       </c>
@@ -16350,7 +16352,7 @@
       </c>
       <c r="J336" s="2"/>
     </row>
-    <row r="337" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="21" t="s">
         <v>1626</v>
       </c>
@@ -16381,7 +16383,7 @@
       </c>
       <c r="J337" s="2"/>
     </row>
-    <row r="338" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="21" t="s">
         <v>1626</v>
       </c>
@@ -16412,7 +16414,7 @@
       </c>
       <c r="J338" s="2"/>
     </row>
-    <row r="339" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="21" t="s">
         <v>1626</v>
       </c>
@@ -16443,7 +16445,7 @@
       </c>
       <c r="J339" s="2"/>
     </row>
-    <row r="340" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="21" t="s">
         <v>1626</v>
       </c>
@@ -16474,7 +16476,7 @@
       </c>
       <c r="J340" s="2"/>
     </row>
-    <row r="341" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="21" t="s">
         <v>1626</v>
       </c>
@@ -16505,7 +16507,7 @@
       </c>
       <c r="J341" s="2"/>
     </row>
-    <row r="342" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="21" t="s">
         <v>1626</v>
       </c>
@@ -16536,7 +16538,7 @@
       </c>
       <c r="J342" s="2"/>
     </row>
-    <row r="343" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="21" t="s">
         <v>1626</v>
       </c>
@@ -16567,7 +16569,7 @@
       </c>
       <c r="J343" s="2"/>
     </row>
-    <row r="344" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="21" t="s">
         <v>1626</v>
       </c>
@@ -16598,7 +16600,7 @@
       </c>
       <c r="J344" s="2"/>
     </row>
-    <row r="345" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="21" t="s">
         <v>1626</v>
       </c>
@@ -16629,7 +16631,7 @@
       </c>
       <c r="J345" s="2"/>
     </row>
-    <row r="346" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="21" t="s">
         <v>1626</v>
       </c>
@@ -16660,7 +16662,7 @@
       </c>
       <c r="J346" s="2"/>
     </row>
-    <row r="347" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="21" t="s">
         <v>1626</v>
       </c>
@@ -16691,7 +16693,7 @@
       </c>
       <c r="J347" s="2"/>
     </row>
-    <row r="348" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="21" t="s">
         <v>1626</v>
       </c>
@@ -16722,7 +16724,7 @@
       </c>
       <c r="J348" s="2"/>
     </row>
-    <row r="349" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="21" t="s">
         <v>1626</v>
       </c>
@@ -16753,7 +16755,7 @@
       </c>
       <c r="J349" s="2"/>
     </row>
-    <row r="350" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="21" t="s">
         <v>1626</v>
       </c>
@@ -16784,7 +16786,7 @@
       </c>
       <c r="J350" s="2"/>
     </row>
-    <row r="351" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="21" t="s">
         <v>1070</v>
       </c>
@@ -16815,7 +16817,7 @@
       </c>
       <c r="J351" s="2"/>
     </row>
-    <row r="352" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="21" t="s">
         <v>1070</v>
       </c>
@@ -16846,7 +16848,7 @@
       </c>
       <c r="J352" s="2"/>
     </row>
-    <row r="353" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="21" t="s">
         <v>1070</v>
       </c>
@@ -16877,7 +16879,7 @@
       </c>
       <c r="J353" s="2"/>
     </row>
-    <row r="354" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="21" t="s">
         <v>1070</v>
       </c>
@@ -16908,7 +16910,7 @@
       </c>
       <c r="J354" s="2"/>
     </row>
-    <row r="355" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="21" t="s">
         <v>1070</v>
       </c>
@@ -16939,7 +16941,7 @@
       </c>
       <c r="J355" s="2"/>
     </row>
-    <row r="356" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="21" t="s">
         <v>1070</v>
       </c>
@@ -16970,7 +16972,7 @@
       </c>
       <c r="J356" s="2"/>
     </row>
-    <row r="357" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="21" t="s">
         <v>1070</v>
       </c>
@@ -17001,7 +17003,7 @@
       </c>
       <c r="J357" s="2"/>
     </row>
-    <row r="358" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="21" t="s">
         <v>1070</v>
       </c>
@@ -17032,7 +17034,7 @@
       </c>
       <c r="J358" s="2"/>
     </row>
-    <row r="359" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="21" t="s">
         <v>1070</v>
       </c>
@@ -17063,7 +17065,7 @@
       </c>
       <c r="J359" s="2"/>
     </row>
-    <row r="360" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="21" t="s">
         <v>1070</v>
       </c>
@@ -17096,7 +17098,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="361" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="21" t="s">
         <v>1070</v>
       </c>
@@ -17129,7 +17131,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="362" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="21" t="s">
         <v>1070</v>
       </c>
@@ -17160,7 +17162,7 @@
       </c>
       <c r="J362" s="2"/>
     </row>
-    <row r="363" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="21" t="s">
         <v>1628</v>
       </c>
@@ -17191,7 +17193,7 @@
       </c>
       <c r="J363" s="2"/>
     </row>
-    <row r="364" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="21" t="s">
         <v>1629</v>
       </c>
@@ -17224,7 +17226,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="365" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="21" t="s">
         <v>1629</v>
       </c>
@@ -17255,7 +17257,7 @@
       </c>
       <c r="J365" s="2"/>
     </row>
-    <row r="366" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="21" t="s">
         <v>1629</v>
       </c>
@@ -17288,7 +17290,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="367" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="21" t="s">
         <v>1629</v>
       </c>
@@ -17319,7 +17321,7 @@
       </c>
       <c r="J367" s="2"/>
     </row>
-    <row r="368" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="21" t="s">
         <v>1629</v>
       </c>
@@ -17352,7 +17354,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="369" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="21" t="s">
         <v>1629</v>
       </c>
@@ -17385,7 +17387,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="370" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="21" t="s">
         <v>1629</v>
       </c>
@@ -17418,7 +17420,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="371" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="21" t="s">
         <v>1629</v>
       </c>
@@ -17449,7 +17451,7 @@
       </c>
       <c r="J371" s="2"/>
     </row>
-    <row r="372" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="21" t="s">
         <v>1629</v>
       </c>
@@ -17482,7 +17484,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="373" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="21" t="s">
         <v>1629</v>
       </c>
@@ -17513,7 +17515,7 @@
       </c>
       <c r="J373" s="2"/>
     </row>
-    <row r="374" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="21" t="s">
         <v>1629</v>
       </c>
@@ -17544,7 +17546,7 @@
       </c>
       <c r="J374" s="2"/>
     </row>
-    <row r="375" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="21" t="s">
         <v>1630</v>
       </c>
@@ -17575,7 +17577,7 @@
       </c>
       <c r="J375" s="2"/>
     </row>
-    <row r="376" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="21" t="s">
         <v>1630</v>
       </c>
@@ -17606,7 +17608,7 @@
       </c>
       <c r="J376" s="2"/>
     </row>
-    <row r="377" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="21" t="s">
         <v>1630</v>
       </c>
@@ -17637,7 +17639,7 @@
       </c>
       <c r="J377" s="2"/>
     </row>
-    <row r="378" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="21" t="s">
         <v>1630</v>
       </c>
@@ -17668,7 +17670,7 @@
       </c>
       <c r="J378" s="2"/>
     </row>
-    <row r="379" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="21" t="s">
         <v>1630</v>
       </c>
@@ -17699,7 +17701,7 @@
       </c>
       <c r="J379" s="2"/>
     </row>
-    <row r="380" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A380" s="21" t="s">
         <v>1630</v>
       </c>
@@ -17730,7 +17732,7 @@
       </c>
       <c r="J380" s="2"/>
     </row>
-    <row r="381" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381" s="21" t="s">
         <v>1630</v>
       </c>
@@ -17761,7 +17763,7 @@
       </c>
       <c r="J381" s="2"/>
     </row>
-    <row r="382" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="21" t="s">
         <v>1630</v>
       </c>
@@ -17792,7 +17794,7 @@
       </c>
       <c r="J382" s="2"/>
     </row>
-    <row r="383" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="21" t="s">
         <v>1630</v>
       </c>
@@ -17823,7 +17825,7 @@
       </c>
       <c r="J383" s="2"/>
     </row>
-    <row r="384" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="21" t="s">
         <v>1630</v>
       </c>
@@ -17854,7 +17856,7 @@
       </c>
       <c r="J384" s="2"/>
     </row>
-    <row r="385" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="21" t="s">
         <v>1635</v>
       </c>
@@ -17885,7 +17887,7 @@
       </c>
       <c r="J385" s="2"/>
     </row>
-    <row r="386" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="21" t="s">
         <v>1637</v>
       </c>
@@ -17916,7 +17918,7 @@
       </c>
       <c r="J386" s="2"/>
     </row>
-    <row r="387" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="21" t="s">
         <v>1637</v>
       </c>
@@ -17947,7 +17949,7 @@
       </c>
       <c r="J387" s="2"/>
     </row>
-    <row r="388" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="21" t="s">
         <v>1637</v>
       </c>
@@ -17978,7 +17980,7 @@
       </c>
       <c r="J388" s="2"/>
     </row>
-    <row r="389" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="21" t="s">
         <v>1637</v>
       </c>
@@ -18009,7 +18011,7 @@
       </c>
       <c r="J389" s="2"/>
     </row>
-    <row r="390" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="21" t="s">
         <v>1637</v>
       </c>
@@ -18040,7 +18042,7 @@
       </c>
       <c r="J390" s="2"/>
     </row>
-    <row r="391" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="21" t="s">
         <v>1637</v>
       </c>
@@ -18071,7 +18073,7 @@
       </c>
       <c r="J391" s="2"/>
     </row>
-    <row r="392" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="21" t="s">
         <v>1637</v>
       </c>
@@ -18102,7 +18104,7 @@
       </c>
       <c r="J392" s="2"/>
     </row>
-    <row r="393" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="21" t="s">
         <v>1639</v>
       </c>
@@ -18133,7 +18135,7 @@
       </c>
       <c r="J393" s="2"/>
     </row>
-    <row r="394" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="21" t="s">
         <v>1639</v>
       </c>
@@ -18164,7 +18166,7 @@
       </c>
       <c r="J394" s="2"/>
     </row>
-    <row r="395" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="21" t="s">
         <v>1639</v>
       </c>
@@ -18195,7 +18197,7 @@
       </c>
       <c r="J395" s="2"/>
     </row>
-    <row r="396" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="21" t="s">
         <v>1639</v>
       </c>
@@ -18226,7 +18228,7 @@
       </c>
       <c r="J396" s="2"/>
     </row>
-    <row r="397" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="21" t="s">
         <v>1639</v>
       </c>
@@ -18257,7 +18259,7 @@
       </c>
       <c r="J397" s="2"/>
     </row>
-    <row r="398" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="21" t="s">
         <v>1639</v>
       </c>
@@ -18288,7 +18290,7 @@
       </c>
       <c r="J398" s="2"/>
     </row>
-    <row r="399" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="21" t="s">
         <v>1639</v>
       </c>
@@ -18319,7 +18321,7 @@
       </c>
       <c r="J399" s="2"/>
     </row>
-    <row r="400" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="21" t="s">
         <v>1639</v>
       </c>
@@ -18350,7 +18352,7 @@
       </c>
       <c r="J400" s="2"/>
     </row>
-    <row r="401" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="21" t="s">
         <v>1641</v>
       </c>
@@ -18383,7 +18385,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="402" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="21" t="s">
         <v>1642</v>
       </c>
@@ -18416,7 +18418,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="403" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="21" t="s">
         <v>1642</v>
       </c>
@@ -18449,7 +18451,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="404" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="17" t="s">
         <v>1643</v>
       </c>
@@ -18480,7 +18482,7 @@
       </c>
       <c r="J404" s="2"/>
     </row>
-    <row r="405" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="17" t="s">
         <v>1643</v>
       </c>
@@ -18513,7 +18515,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="406" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="17" t="s">
         <v>1648</v>
       </c>
@@ -18544,7 +18546,7 @@
       </c>
       <c r="J406" s="2"/>
     </row>
-    <row r="407" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="17" t="s">
         <v>1648</v>
       </c>
@@ -18577,7 +18579,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="408" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="17" t="s">
         <v>1648</v>
       </c>
@@ -18610,7 +18612,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="409" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="17" t="s">
         <v>1648</v>
       </c>
@@ -18641,7 +18643,7 @@
       </c>
       <c r="J409" s="2"/>
     </row>
-    <row r="410" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="17" t="s">
         <v>1648</v>
       </c>
@@ -18672,7 +18674,7 @@
       </c>
       <c r="J410" s="2"/>
     </row>
-    <row r="411" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="17" t="s">
         <v>1648</v>
       </c>
@@ -18703,7 +18705,7 @@
       </c>
       <c r="J411" s="2"/>
     </row>
-    <row r="412" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="17" t="s">
         <v>1648</v>
       </c>
@@ -18734,7 +18736,7 @@
       </c>
       <c r="J412" s="2"/>
     </row>
-    <row r="413" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="17" t="s">
         <v>1648</v>
       </c>
@@ -18765,7 +18767,7 @@
       </c>
       <c r="J413" s="2"/>
     </row>
-    <row r="414" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="17" t="s">
         <v>1648</v>
       </c>
@@ -18796,7 +18798,7 @@
       </c>
       <c r="J414" s="2"/>
     </row>
-    <row r="415" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="17" t="s">
         <v>1648</v>
       </c>
@@ -18827,7 +18829,7 @@
       </c>
       <c r="J415" s="2"/>
     </row>
-    <row r="416" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="17" t="s">
         <v>1648</v>
       </c>
@@ -18860,7 +18862,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="417" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="17" t="s">
         <v>1648</v>
       </c>
@@ -18891,7 +18893,7 @@
       </c>
       <c r="J417" s="2"/>
     </row>
-    <row r="418" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="17" t="s">
         <v>1648</v>
       </c>
@@ -18922,7 +18924,7 @@
       </c>
       <c r="J418" s="2"/>
     </row>
-    <row r="419" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="21" t="s">
         <v>1649</v>
       </c>
@@ -18952,7 +18954,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="420" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A420" s="21" t="s">
         <v>1649</v>
       </c>
@@ -18985,7 +18987,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="421" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="21" t="s">
         <v>1649</v>
       </c>
@@ -19016,7 +19018,7 @@
       </c>
       <c r="J421" s="2"/>
     </row>
-    <row r="422" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A422" s="21" t="s">
         <v>1649</v>
       </c>
@@ -19047,7 +19049,7 @@
       </c>
       <c r="J422" s="2"/>
     </row>
-    <row r="423" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="21" t="s">
         <v>1649</v>
       </c>
@@ -19078,7 +19080,7 @@
       </c>
       <c r="J423" s="2"/>
     </row>
-    <row r="424" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A424" s="21" t="s">
         <v>1649</v>
       </c>
@@ -19109,7 +19111,7 @@
       </c>
       <c r="J424" s="2"/>
     </row>
-    <row r="425" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A425" s="21" t="s">
         <v>1649</v>
       </c>
@@ -19142,7 +19144,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="426" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A426" s="21" t="s">
         <v>1649</v>
       </c>
@@ -19175,7 +19177,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="427" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427" s="21" t="s">
         <v>1649</v>
       </c>
@@ -19208,7 +19210,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="428" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A428" s="21" t="s">
         <v>1649</v>
       </c>
@@ -19239,7 +19241,7 @@
       </c>
       <c r="J428" s="2"/>
     </row>
-    <row r="429" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429" s="21" t="s">
         <v>1649</v>
       </c>
@@ -19270,7 +19272,7 @@
       </c>
       <c r="J429" s="2"/>
     </row>
-    <row r="430" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="21" t="s">
         <v>1649</v>
       </c>
@@ -19301,7 +19303,7 @@
       </c>
       <c r="J430" s="2"/>
     </row>
-    <row r="431" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431" s="21" t="s">
         <v>1649</v>
       </c>
@@ -19332,7 +19334,7 @@
       </c>
       <c r="J431" s="2"/>
     </row>
-    <row r="432" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A432" s="21" t="s">
         <v>1651</v>
       </c>
@@ -19363,7 +19365,7 @@
       </c>
       <c r="J432" s="2"/>
     </row>
-    <row r="433" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A433" s="21" t="s">
         <v>1651</v>
       </c>
@@ -19394,7 +19396,7 @@
       </c>
       <c r="J433" s="2"/>
     </row>
-    <row r="434" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A434" s="21" t="s">
         <v>1651</v>
       </c>
@@ -19425,7 +19427,7 @@
       </c>
       <c r="J434" s="2"/>
     </row>
-    <row r="435" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435" s="21" t="s">
         <v>1651</v>
       </c>
@@ -19456,7 +19458,7 @@
       </c>
       <c r="J435" s="2"/>
     </row>
-    <row r="436" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="21" t="s">
         <v>1651</v>
       </c>
@@ -19487,7 +19489,7 @@
       </c>
       <c r="J436" s="2"/>
     </row>
-    <row r="437" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="21" t="s">
         <v>1031</v>
       </c>
@@ -19518,7 +19520,7 @@
       </c>
       <c r="J437" s="2"/>
     </row>
-    <row r="438" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="21" t="s">
         <v>1031</v>
       </c>
@@ -19549,7 +19551,7 @@
       </c>
       <c r="J438" s="2"/>
     </row>
-    <row r="439" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439" s="21" t="s">
         <v>1031</v>
       </c>
@@ -19580,7 +19582,7 @@
       </c>
       <c r="J439" s="2"/>
     </row>
-    <row r="440" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="21" t="s">
         <v>1031</v>
       </c>
@@ -19611,7 +19613,7 @@
       </c>
       <c r="J440" s="2"/>
     </row>
-    <row r="441" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="21" t="s">
         <v>1655</v>
       </c>
@@ -19642,7 +19644,7 @@
       </c>
       <c r="J441" s="2"/>
     </row>
-    <row r="442" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="21" t="s">
         <v>1655</v>
       </c>
@@ -19673,7 +19675,7 @@
       </c>
       <c r="J442" s="2"/>
     </row>
-    <row r="443" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="21" t="s">
         <v>1655</v>
       </c>
@@ -19704,7 +19706,7 @@
       </c>
       <c r="J443" s="2"/>
     </row>
-    <row r="444" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="21" t="s">
         <v>1655</v>
       </c>
@@ -19735,7 +19737,7 @@
       </c>
       <c r="J444" s="2"/>
     </row>
-    <row r="445" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="21" t="s">
         <v>1657</v>
       </c>
@@ -19766,7 +19768,7 @@
       </c>
       <c r="J445" s="2"/>
     </row>
-    <row r="446" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="21" t="s">
         <v>1657</v>
       </c>
@@ -19799,7 +19801,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="447" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="21" t="s">
         <v>1657</v>
       </c>
@@ -19830,7 +19832,7 @@
       </c>
       <c r="J447" s="2"/>
     </row>
-    <row r="448" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="21" t="s">
         <v>1657</v>
       </c>
@@ -19861,7 +19863,7 @@
       </c>
       <c r="J448" s="2"/>
     </row>
-    <row r="449" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A449" s="21" t="s">
         <v>1657</v>
       </c>
@@ -19892,7 +19894,7 @@
       </c>
       <c r="J449" s="2"/>
     </row>
-    <row r="450" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="21" t="s">
         <v>1657</v>
       </c>
@@ -19923,7 +19925,7 @@
       </c>
       <c r="J450" s="2"/>
     </row>
-    <row r="451" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="21" t="s">
         <v>1657</v>
       </c>
@@ -19954,7 +19956,7 @@
       </c>
       <c r="J451" s="2"/>
     </row>
-    <row r="452" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="21" t="s">
         <v>1657</v>
       </c>
@@ -19985,7 +19987,7 @@
       </c>
       <c r="J452" s="2"/>
     </row>
-    <row r="453" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="21" t="s">
         <v>1657</v>
       </c>
@@ -20016,7 +20018,7 @@
       </c>
       <c r="J453" s="2"/>
     </row>
-    <row r="454" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="21" t="s">
         <v>1657</v>
       </c>
@@ -20047,7 +20049,7 @@
       </c>
       <c r="J454" s="2"/>
     </row>
-    <row r="455" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="21" t="s">
         <v>1657</v>
       </c>
@@ -20078,7 +20080,7 @@
       </c>
       <c r="J455" s="2"/>
     </row>
-    <row r="456" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="21" t="s">
         <v>1657</v>
       </c>
@@ -20109,7 +20111,7 @@
       </c>
       <c r="J456" s="2"/>
     </row>
-    <row r="457" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="21" t="s">
         <v>1657</v>
       </c>
@@ -20140,7 +20142,7 @@
       </c>
       <c r="J457" s="2"/>
     </row>
-    <row r="458" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="21" t="s">
         <v>1657</v>
       </c>
@@ -20171,7 +20173,7 @@
       </c>
       <c r="J458" s="2"/>
     </row>
-    <row r="459" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="21" t="s">
         <v>1657</v>
       </c>
@@ -20202,7 +20204,7 @@
       </c>
       <c r="J459" s="2"/>
     </row>
-    <row r="460" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="21" t="s">
         <v>1657</v>
       </c>
@@ -20233,7 +20235,7 @@
       </c>
       <c r="J460" s="2"/>
     </row>
-    <row r="461" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="21" t="s">
         <v>1657</v>
       </c>
@@ -20264,7 +20266,7 @@
       </c>
       <c r="J461" s="2"/>
     </row>
-    <row r="462" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="21" t="s">
         <v>1657</v>
       </c>
@@ -20295,7 +20297,7 @@
       </c>
       <c r="J462" s="2"/>
     </row>
-    <row r="463" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="21" t="s">
         <v>1657</v>
       </c>
@@ -20326,7 +20328,7 @@
       </c>
       <c r="J463" s="2"/>
     </row>
-    <row r="464" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" s="21" t="s">
         <v>1657</v>
       </c>
@@ -20357,7 +20359,7 @@
       </c>
       <c r="J464" s="2"/>
     </row>
-    <row r="465" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="21" t="s">
         <v>1657</v>
       </c>
@@ -20388,7 +20390,7 @@
       </c>
       <c r="J465" s="2"/>
     </row>
-    <row r="466" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="21" t="s">
         <v>1657</v>
       </c>
@@ -20419,7 +20421,7 @@
       </c>
       <c r="J466" s="2"/>
     </row>
-    <row r="467" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="21" t="s">
         <v>1659</v>
       </c>
@@ -20450,7 +20452,7 @@
       </c>
       <c r="J467" s="2"/>
     </row>
-    <row r="468" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="21" t="s">
         <v>1659</v>
       </c>
@@ -20483,7 +20485,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="469" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A469" s="21" t="s">
         <v>1659</v>
       </c>
@@ -20516,7 +20518,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="470" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="21" t="s">
         <v>1659</v>
       </c>
@@ -20547,7 +20549,7 @@
       </c>
       <c r="J470" s="2"/>
     </row>
-    <row r="471" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="21" t="s">
         <v>1659</v>
       </c>
@@ -20578,7 +20580,7 @@
       </c>
       <c r="J471" s="2"/>
     </row>
-    <row r="472" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A472" s="21" t="s">
         <v>1659</v>
       </c>
@@ -20609,7 +20611,7 @@
       </c>
       <c r="J472" s="2"/>
     </row>
-    <row r="473" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A473" s="21" t="s">
         <v>1659</v>
       </c>
@@ -20640,7 +20642,7 @@
       </c>
       <c r="J473" s="2"/>
     </row>
-    <row r="474" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A474" s="21" t="s">
         <v>1659</v>
       </c>
@@ -20671,7 +20673,7 @@
       </c>
       <c r="J474" s="2"/>
     </row>
-    <row r="475" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A475" s="21" t="s">
         <v>1659</v>
       </c>
@@ -20702,7 +20704,7 @@
       </c>
       <c r="J475" s="2"/>
     </row>
-    <row r="476" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A476" s="21" t="s">
         <v>1659</v>
       </c>
@@ -20733,7 +20735,7 @@
       </c>
       <c r="J476" s="2"/>
     </row>
-    <row r="477" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A477" s="21" t="s">
         <v>1659</v>
       </c>
@@ -20764,7 +20766,7 @@
       </c>
       <c r="J477" s="2"/>
     </row>
-    <row r="478" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="21" t="s">
         <v>1659</v>
       </c>
@@ -20795,7 +20797,7 @@
       </c>
       <c r="J478" s="2"/>
     </row>
-    <row r="479" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A479" s="17" t="s">
         <v>1660</v>
       </c>
@@ -20828,7 +20830,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="480" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="17" t="s">
         <v>1661</v>
       </c>
@@ -20859,7 +20861,7 @@
       </c>
       <c r="J480" s="2"/>
     </row>
-    <row r="481" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A481" s="17" t="s">
         <v>1662</v>
       </c>
@@ -20890,7 +20892,7 @@
       </c>
       <c r="J481" s="2"/>
     </row>
-    <row r="482" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A482" s="17" t="s">
         <v>1663</v>
       </c>
@@ -20923,7 +20925,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="483" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A483" s="17" t="s">
         <v>1664</v>
       </c>
@@ -20956,7 +20958,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="484" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A484" s="17" t="s">
         <v>1665</v>
       </c>
@@ -20987,7 +20989,7 @@
       </c>
       <c r="J484" s="2"/>
     </row>
-    <row r="485" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A485" s="17" t="s">
         <v>1666</v>
       </c>
@@ -21018,7 +21020,7 @@
       </c>
       <c r="J485" s="2"/>
     </row>
-    <row r="486" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="17" t="s">
         <v>1667</v>
       </c>
@@ -21049,7 +21051,7 @@
       </c>
       <c r="J486" s="2"/>
     </row>
-    <row r="487" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A487" s="17" t="s">
         <v>1668</v>
       </c>
@@ -21080,7 +21082,7 @@
       </c>
       <c r="J487" s="2"/>
     </row>
-    <row r="488" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A488" s="17" t="s">
         <v>1664</v>
       </c>
@@ -21111,7 +21113,7 @@
       </c>
       <c r="J488" s="2"/>
     </row>
-    <row r="489" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A489" s="17" t="s">
         <v>1664</v>
       </c>
@@ -21142,7 +21144,7 @@
       </c>
       <c r="J489" s="2"/>
     </row>
-    <row r="490" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="17" t="s">
         <v>1664</v>
       </c>
@@ -21173,7 +21175,7 @@
       </c>
       <c r="J490" s="2"/>
     </row>
-    <row r="491" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A491" s="17" t="s">
         <v>1664</v>
       </c>
@@ -21204,7 +21206,7 @@
       </c>
       <c r="J491" s="2"/>
     </row>
-    <row r="492" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A492" s="21" t="s">
         <v>1672</v>
       </c>
@@ -21235,7 +21237,7 @@
       </c>
       <c r="J492" s="2"/>
     </row>
-    <row r="493" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A493" s="21" t="s">
         <v>1672</v>
       </c>
@@ -21266,7 +21268,7 @@
       </c>
       <c r="J493" s="2"/>
     </row>
-    <row r="494" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A494" s="21" t="s">
         <v>1672</v>
       </c>
@@ -21297,7 +21299,7 @@
       </c>
       <c r="J494" s="2"/>
     </row>
-    <row r="495" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A495" s="17" t="s">
         <v>1675</v>
       </c>
@@ -21327,7 +21329,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="496" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A496" s="21" t="s">
         <v>1676</v>
       </c>
@@ -21360,7 +21362,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="497" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="21" t="s">
         <v>1676</v>
       </c>
@@ -21393,7 +21395,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="498" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A498" s="21" t="s">
         <v>1678</v>
       </c>
@@ -21424,7 +21426,7 @@
       </c>
       <c r="J498" s="2"/>
     </row>
-    <row r="499" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A499" s="17" t="s">
         <v>1681</v>
       </c>
@@ -21455,7 +21457,7 @@
       </c>
       <c r="J499" s="2"/>
     </row>
-    <row r="500" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="17" t="s">
         <v>1681</v>
       </c>
@@ -21486,7 +21488,7 @@
       </c>
       <c r="J500" s="2"/>
     </row>
-    <row r="501" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="17" t="s">
         <v>1681</v>
       </c>
@@ -21517,7 +21519,7 @@
       </c>
       <c r="J501" s="2"/>
     </row>
-    <row r="502" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A502" s="17" t="s">
         <v>1681</v>
       </c>
@@ -21548,7 +21550,7 @@
       </c>
       <c r="J502" s="2"/>
     </row>
-    <row r="503" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A503" s="17" t="s">
         <v>1683</v>
       </c>
@@ -21581,7 +21583,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="504" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A504" s="17" t="s">
         <v>1683</v>
       </c>
@@ -21614,7 +21616,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="505" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A505" s="17" t="s">
         <v>1684</v>
       </c>
@@ -21647,7 +21649,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="506" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A506" s="17" t="s">
         <v>1684</v>
       </c>
@@ -21680,7 +21682,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="507" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A507" s="17" t="s">
         <v>1684</v>
       </c>
@@ -21713,7 +21715,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="508" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A508" s="17" t="s">
         <v>1684</v>
       </c>
@@ -21746,7 +21748,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="509" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A509" s="17" t="s">
         <v>1684</v>
       </c>
@@ -21779,7 +21781,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="510" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A510" s="17" t="s">
         <v>1684</v>
       </c>
@@ -21812,7 +21814,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="511" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A511" s="17" t="s">
         <v>1684</v>
       </c>
@@ -21845,7 +21847,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="512" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A512" s="17" t="s">
         <v>1684</v>
       </c>
@@ -21878,7 +21880,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="513" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A513" s="17" t="s">
         <v>1684</v>
       </c>
@@ -21911,7 +21913,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="514" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A514" s="17" t="s">
         <v>1684</v>
       </c>
@@ -21944,7 +21946,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="515" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A515" s="17" t="s">
         <v>1684</v>
       </c>
@@ -21977,7 +21979,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="516" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A516" s="17" t="s">
         <v>1684</v>
       </c>
@@ -22010,7 +22012,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="517" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A517" s="17" t="s">
         <v>1684</v>
       </c>
@@ -22043,7 +22045,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="518" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A518" s="17" t="s">
         <v>1684</v>
       </c>
@@ -22076,7 +22078,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="519" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A519" s="17" t="s">
         <v>1684</v>
       </c>
@@ -22109,7 +22111,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="520" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A520" s="17" t="s">
         <v>1684</v>
       </c>
@@ -22142,7 +22144,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="521" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A521" s="17" t="s">
         <v>1684</v>
       </c>
@@ -22175,7 +22177,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="522" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A522" s="17" t="s">
         <v>1684</v>
       </c>
@@ -22208,7 +22210,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="523" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A523" s="17" t="s">
         <v>1684</v>
       </c>
@@ -22241,7 +22243,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="524" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A524" s="17" t="s">
         <v>1684</v>
       </c>
@@ -22274,7 +22276,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="525" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A525" s="17" t="s">
         <v>1684</v>
       </c>
@@ -22307,7 +22309,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="526" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A526" s="17" t="s">
         <v>1684</v>
       </c>
@@ -22340,7 +22342,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="527" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A527" s="21" t="s">
         <v>1685</v>
       </c>
@@ -22371,7 +22373,7 @@
       </c>
       <c r="J527" s="2"/>
     </row>
-    <row r="528" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A528" s="21" t="s">
         <v>1685</v>
       </c>
@@ -22402,7 +22404,7 @@
       </c>
       <c r="J528" s="2"/>
     </row>
-    <row r="529" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A529" s="21" t="s">
         <v>1685</v>
       </c>
@@ -22433,7 +22435,7 @@
       </c>
       <c r="J529" s="2"/>
     </row>
-    <row r="530" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A530" s="21" t="s">
         <v>1685</v>
       </c>
@@ -22464,7 +22466,7 @@
       </c>
       <c r="J530" s="2"/>
     </row>
-    <row r="531" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A531" s="21" t="s">
         <v>1685</v>
       </c>
@@ -22495,7 +22497,7 @@
       </c>
       <c r="J531" s="2"/>
     </row>
-    <row r="532" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A532" s="21" t="s">
         <v>1685</v>
       </c>
@@ -22526,7 +22528,7 @@
       </c>
       <c r="J532" s="2"/>
     </row>
-    <row r="533" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A533" s="21" t="s">
         <v>1685</v>
       </c>
@@ -22557,7 +22559,7 @@
       </c>
       <c r="J533" s="2"/>
     </row>
-    <row r="534" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A534" s="21" t="s">
         <v>1685</v>
       </c>
@@ -22588,7 +22590,7 @@
       </c>
       <c r="J534" s="2"/>
     </row>
-    <row r="535" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A535" s="21" t="s">
         <v>1685</v>
       </c>
@@ -22619,7 +22621,7 @@
       </c>
       <c r="J535" s="2"/>
     </row>
-    <row r="536" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A536" s="21" t="s">
         <v>1685</v>
       </c>
@@ -22650,7 +22652,7 @@
       </c>
       <c r="J536" s="2"/>
     </row>
-    <row r="537" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A537" s="21" t="s">
         <v>1685</v>
       </c>
@@ -22681,7 +22683,7 @@
       </c>
       <c r="J537" s="2"/>
     </row>
-    <row r="538" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A538" s="21" t="s">
         <v>1686</v>
       </c>
@@ -22712,7 +22714,7 @@
       </c>
       <c r="J538" s="2"/>
     </row>
-    <row r="539" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A539" s="21" t="s">
         <v>1690</v>
       </c>
@@ -22743,7 +22745,7 @@
       </c>
       <c r="J539" s="2"/>
     </row>
-    <row r="540" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A540" s="21" t="s">
         <v>1687</v>
       </c>
@@ -22774,7 +22776,7 @@
       </c>
       <c r="J540" s="2"/>
     </row>
-    <row r="541" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A541" s="21" t="s">
         <v>1687</v>
       </c>
@@ -22807,7 +22809,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="542" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A542" s="21" t="s">
         <v>1693</v>
       </c>
@@ -22838,7 +22840,7 @@
       </c>
       <c r="J542" s="2"/>
     </row>
-    <row r="543" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A543" s="21" t="s">
         <v>1693</v>
       </c>
@@ -22871,7 +22873,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="544" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A544" s="17" t="s">
         <v>181</v>
       </c>
@@ -22904,7 +22906,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="545" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A545" s="17" t="s">
         <v>1697</v>
       </c>
@@ -22937,7 +22939,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="546" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A546" s="21" t="s">
         <v>1698</v>
       </c>
@@ -22968,7 +22970,7 @@
       </c>
       <c r="J546" s="2"/>
     </row>
-    <row r="547" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A547" s="21" t="s">
         <v>1700</v>
       </c>
@@ -23001,7 +23003,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="548" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A548" s="21" t="s">
         <v>1700</v>
       </c>
@@ -23032,7 +23034,7 @@
       </c>
       <c r="J548" s="2"/>
     </row>
-    <row r="549" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A549" s="21" t="s">
         <v>1702</v>
       </c>
@@ -23063,7 +23065,7 @@
       </c>
       <c r="J549" s="2"/>
     </row>
-    <row r="550" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A550" s="21" t="s">
         <v>1702</v>
       </c>
@@ -23094,7 +23096,7 @@
       </c>
       <c r="J550" s="2"/>
     </row>
-    <row r="551" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A551" s="21" t="s">
         <v>1704</v>
       </c>
@@ -23125,7 +23127,7 @@
       </c>
       <c r="J551" s="2"/>
     </row>
-    <row r="552" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A552" s="17" t="s">
         <v>1706</v>
       </c>
@@ -23156,7 +23158,7 @@
       </c>
       <c r="J552" s="2"/>
     </row>
-    <row r="553" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A553" s="17" t="s">
         <v>1706</v>
       </c>
@@ -23187,7 +23189,7 @@
       </c>
       <c r="J553" s="2"/>
     </row>
-    <row r="554" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A554" s="17" t="s">
         <v>1706</v>
       </c>
@@ -23218,7 +23220,7 @@
       </c>
       <c r="J554" s="2"/>
     </row>
-    <row r="555" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A555" s="21" t="s">
         <v>1707</v>
       </c>
@@ -23249,7 +23251,7 @@
       </c>
       <c r="J555" s="2"/>
     </row>
-    <row r="556" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A556" s="17" t="s">
         <v>1709</v>
       </c>
@@ -23280,7 +23282,7 @@
       </c>
       <c r="J556" s="2"/>
     </row>
-    <row r="557" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A557" s="17" t="s">
         <v>1709</v>
       </c>
@@ -23311,7 +23313,7 @@
       </c>
       <c r="J557" s="2"/>
     </row>
-    <row r="558" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A558" s="17" t="s">
         <v>1711</v>
       </c>
@@ -23343,13 +23345,7 @@
       <c r="J558" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J558" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="ROOF CONTRACTOR"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J558" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
